--- a/docs/load-report.xlsx
+++ b/docs/load-report.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\pocs\POC.Benchmark.MongoDB\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F4641-23F7-425C-B7D6-BF5740AB4B82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5BCC23-C4F7-4DA6-8717-E2447E279E96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E934A67E-0258-4486-9420-54F024A21336}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E934A67E-0258-4486-9420-54F024A21336}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="reports" sheetId="2" r:id="rId2"/>
+    <sheet name="database_usage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
   <si>
     <t>Requests</t>
   </si>
@@ -491,13 +492,98 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>"DB_BY_COLLECTIONS",</t>
+  </si>
+  <si>
+    <t>"DB_BY_DOCUMENTS",</t>
+  </si>
+  <si>
+    <t>Tamanho total da base (sem compressão)</t>
+  </si>
+  <si>
+    <t>Tamanho total alocado para coleção</t>
+  </si>
+  <si>
+    <t>Utilização do disco</t>
+  </si>
+  <si>
+    <t>Tamanho do disco total disponível</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>views</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>avgObjSize</t>
+  </si>
+  <si>
+    <t>dataSize</t>
+  </si>
+  <si>
+    <t>storageSize</t>
+  </si>
+  <si>
+    <t>indexes</t>
+  </si>
+  <si>
+    <t>indexSize</t>
+  </si>
+  <si>
+    <t>totalSize</t>
+  </si>
+  <si>
+    <t>scaleFactor</t>
+  </si>
+  <si>
+    <t>fsUsedSize</t>
+  </si>
+  <si>
+    <t>fsTotalSize</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>dataSize (MB)</t>
+  </si>
+  <si>
+    <t>storageSize (MB)</t>
+  </si>
+  <si>
+    <t>indexSize (MB)</t>
+  </si>
+  <si>
+    <t>totalSize (MB)</t>
+  </si>
+  <si>
+    <t>fsUsedSize (GB)</t>
+  </si>
+  <si>
+    <t>fsTotalSize (GB)</t>
+  </si>
+  <si>
+    <t>DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +607,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -583,10 +676,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,9 +704,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1737,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D342FE3-63BA-4E11-B709-F1657BAD055C}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1789,19 +1888,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="str">
-        <f>Planilha1!A4</f>
+        <f>results!A4</f>
         <v>Label</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>Planilha1!B4</f>
+        <f>results!B4</f>
         <v>#Samples</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>Planilha1!D4</f>
+        <f>results!D4</f>
         <v>Error %</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>Planilha1!L4</f>
+        <f>results!L4</f>
         <v>Transactions/s</v>
       </c>
       <c r="F2" t="s">
@@ -1834,19 +1933,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
-        <f>Planilha1!A5</f>
+        <f>results!A5</f>
         <v>Total</v>
       </c>
       <c r="B3" s="3">
-        <f>Planilha1!B5</f>
+        <f>results!B5</f>
         <v>9000</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>Planilha1!D5</f>
+        <f>results!D5</f>
         <v>0.00%</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>Planilha1!L5</f>
+        <f>results!L5</f>
         <v>143.51</v>
       </c>
       <c r="F3" t="s">
@@ -1883,19 +1982,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
-        <f>Planilha1!A6</f>
+        <f>results!A6</f>
         <v>Test Request 1</v>
       </c>
       <c r="B4" s="3">
-        <f>Planilha1!B6</f>
+        <f>results!B6</f>
         <v>1000</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>Planilha1!D6</f>
+        <f>results!D6</f>
         <v>0.00%</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>Planilha1!L6</f>
+        <f>results!L6</f>
         <v>116.00</v>
       </c>
       <c r="F4" t="s">
@@ -1932,19 +2031,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
-        <f>Planilha1!A7</f>
+        <f>results!A7</f>
         <v>Test Request 2</v>
       </c>
       <c r="B5" s="3">
-        <f>Planilha1!B7</f>
+        <f>results!B7</f>
         <v>1200</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>Planilha1!D7</f>
+        <f>results!D7</f>
         <v>0.00%</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>Planilha1!L7</f>
+        <f>results!L7</f>
         <v>156.43</v>
       </c>
       <c r="F5" t="s">
@@ -1981,19 +2080,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
-        <f>Planilha1!A8</f>
+        <f>results!A8</f>
         <v>Test Request 3</v>
       </c>
       <c r="B6" s="3">
-        <f>Planilha1!B8</f>
+        <f>results!B8</f>
         <v>1400</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>Planilha1!D8</f>
+        <f>results!D8</f>
         <v>0.00%</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>Planilha1!L8</f>
+        <f>results!L8</f>
         <v>136.89</v>
       </c>
       <c r="F6" t="s">
@@ -2030,19 +2129,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
-        <f>Planilha1!A9</f>
+        <f>results!A9</f>
         <v>Test Request 4</v>
       </c>
       <c r="B7" s="3">
-        <f>Planilha1!B9</f>
+        <f>results!B9</f>
         <v>1600</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>Planilha1!D9</f>
+        <f>results!D9</f>
         <v>0.00%</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>Planilha1!L9</f>
+        <f>results!L9</f>
         <v>138.44</v>
       </c>
       <c r="F7" t="s">
@@ -2079,19 +2178,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
-        <f>Planilha1!A10</f>
+        <f>results!A10</f>
         <v>Test Request 5</v>
       </c>
       <c r="B8" s="3">
-        <f>Planilha1!B10</f>
+        <f>results!B10</f>
         <v>1800</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>Planilha1!D10</f>
+        <f>results!D10</f>
         <v>0.00%</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>Planilha1!L10</f>
+        <f>results!L10</f>
         <v>152.08</v>
       </c>
       <c r="F8" t="s">
@@ -2128,19 +2227,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
-        <f>Planilha1!A11</f>
+        <f>results!A11</f>
         <v>Test Request 6</v>
       </c>
       <c r="B9" s="3">
-        <f>Planilha1!B11</f>
+        <f>results!B11</f>
         <v>2000</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>Planilha1!D11</f>
+        <f>results!D11</f>
         <v>0.00%</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>Planilha1!L11</f>
+        <f>results!L11</f>
         <v>156.54</v>
       </c>
       <c r="F9" t="s">
@@ -2206,19 +2305,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
-        <f>Planilha1!A15</f>
+        <f>results!A15</f>
         <v>Label</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>Planilha1!B15</f>
+        <f>results!B15</f>
         <v>#Samples</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>Planilha1!D15</f>
+        <f>results!D15</f>
         <v>Error %</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>Planilha1!L15</f>
+        <f>results!L15</f>
         <v>Transactions/s</v>
       </c>
       <c r="F13" t="s">
@@ -2251,19 +2350,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
-        <f>Planilha1!A16</f>
+        <f>results!A16</f>
         <v>Total</v>
       </c>
       <c r="B14" s="3">
-        <f>Planilha1!B16</f>
+        <f>results!B16</f>
         <v>9000</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>Planilha1!D16</f>
+        <f>results!D16</f>
         <v>30.51%</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>Planilha1!L16</f>
+        <f>results!L16</f>
         <v>94.67</v>
       </c>
       <c r="F14" t="s">
@@ -2300,19 +2399,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
-        <f>Planilha1!A17</f>
+        <f>results!A17</f>
         <v>Test Request 1</v>
       </c>
       <c r="B15" s="3">
-        <f>Planilha1!B17</f>
+        <f>results!B17</f>
         <v>1000</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>Planilha1!D17</f>
+        <f>results!D17</f>
         <v>24.10%</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>Planilha1!L17</f>
+        <f>results!L17</f>
         <v>54.10</v>
       </c>
       <c r="F15" t="s">
@@ -2349,19 +2448,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
-        <f>Planilha1!A18</f>
+        <f>results!A18</f>
         <v>Test Request 2</v>
       </c>
       <c r="B16" s="3">
-        <f>Planilha1!B18</f>
+        <f>results!B18</f>
         <v>1200</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>Planilha1!D18</f>
+        <f>results!D18</f>
         <v>17.17%</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>Planilha1!L18</f>
+        <f>results!L18</f>
         <v>96.24</v>
       </c>
       <c r="F16" t="s">
@@ -2398,19 +2497,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
-        <f>Planilha1!A19</f>
+        <f>results!A19</f>
         <v>Test Request 3</v>
       </c>
       <c r="B17" s="3">
-        <f>Planilha1!B19</f>
+        <f>results!B19</f>
         <v>1400</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>Planilha1!D19</f>
+        <f>results!D19</f>
         <v>32.07%</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>Planilha1!L19</f>
+        <f>results!L19</f>
         <v>104.05</v>
       </c>
       <c r="F17" t="s">
@@ -2447,19 +2546,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
-        <f>Planilha1!A20</f>
+        <f>results!A20</f>
         <v>Test Request 4</v>
       </c>
       <c r="B18" s="3">
-        <f>Planilha1!B20</f>
+        <f>results!B20</f>
         <v>1600</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>Planilha1!D20</f>
+        <f>results!D20</f>
         <v>21.63%</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>Planilha1!L20</f>
+        <f>results!L20</f>
         <v>100.25</v>
       </c>
       <c r="F18" t="s">
@@ -2496,19 +2595,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
-        <f>Planilha1!A21</f>
+        <f>results!A21</f>
         <v>Test Request 5</v>
       </c>
       <c r="B19" s="3">
-        <f>Planilha1!B21</f>
+        <f>results!B21</f>
         <v>1800</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>Planilha1!D21</f>
+        <f>results!D21</f>
         <v>37.17%</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>Planilha1!L21</f>
+        <f>results!L21</f>
         <v>105.53</v>
       </c>
       <c r="F19" t="s">
@@ -2545,19 +2644,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
-        <f>Planilha1!A22</f>
+        <f>results!A22</f>
         <v>Test Request 6</v>
       </c>
       <c r="B20" s="3">
-        <f>Planilha1!B22</f>
+        <f>results!B22</f>
         <v>2000</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>Planilha1!D22</f>
+        <f>results!D22</f>
         <v>41.75%</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>Planilha1!L22</f>
+        <f>results!L22</f>
         <v>113.48</v>
       </c>
       <c r="F20" t="s">
@@ -2595,4 +2694,531 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F857E9-EF8E-4CC7-97B4-BAD822223B49}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="11" t="str">
+        <f>B2</f>
+        <v>"DB_BY_COLLECTIONS",</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="11" t="str">
+        <f>C2</f>
+        <v>"DB_BY_DOCUMENTS",</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="11">
+        <f>B3</f>
+        <v>5000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="11">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="11">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="11">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="11">
+        <f>B5</f>
+        <v>5000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="11">
+        <f>C5</f>
+        <v>5000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="10">
+        <v>606.45060000000001</v>
+      </c>
+      <c r="C6" s="10">
+        <v>606.45060000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="11">
+        <f>B6</f>
+        <v>606.45060000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="11">
+        <f>C6</f>
+        <v>606.45060000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3032253</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3032253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="12">
+        <f>B7/1024/1024</f>
+        <v>2.8917818069458008</v>
+      </c>
+      <c r="I7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="12">
+        <f>C7/1024/1024</f>
+        <v>2.8917818069458008</v>
+      </c>
+      <c r="K7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="10">
+        <v>102400000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1286144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="12">
+        <f>B8/1024/1024</f>
+        <v>97.65625</v>
+      </c>
+      <c r="I8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="12">
+        <f>C8/1024/1024</f>
+        <v>1.2265625</v>
+      </c>
+      <c r="K8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="11">
+        <f>B9</f>
+        <v>5000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="11">
+        <f>C9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="10">
+        <v>102400000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>139264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="12">
+        <f>B10/1024/1024</f>
+        <v>97.65625</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="12">
+        <f>C10/1024/1024</f>
+        <v>0.1328125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="10">
+        <v>204800000</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1425408</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="12">
+        <f>B11/1024/1024</f>
+        <v>195.3125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="12">
+        <f>C11/1024/1024</f>
+        <v>1.359375</v>
+      </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="11">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="11">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="10">
+        <v>49365127168</v>
+      </c>
+      <c r="C13" s="10">
+        <v>49365131264</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="12">
+        <f>B13/1024/1024/1024</f>
+        <v>45.974857330322266</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="12">
+        <f>C13/1024/1024/1024</f>
+        <v>45.974861145019531</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="10">
+        <v>67371577344</v>
+      </c>
+      <c r="C14" s="10">
+        <v>67371577344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="12">
+        <f>B14/1024/1024/1024</f>
+        <v>62.744670867919922</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="12">
+        <f>C14/1024/1024/1024</f>
+        <v>62.744670867919922</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="11">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <f>C15</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J9 H9" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>